--- a/mtdinfo.xlsx
+++ b/mtdinfo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="4440"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="4440" tabRatio="506"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="71">
   <si>
     <t>logo</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -60,103 +60,240 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>0x000AFFFF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rd.gz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x00010000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DSM分区名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存储内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rootfs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>env</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大小(KB)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>起始</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x00020000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0003ffff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x00040000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0004FFFF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x00050000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x00030000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>env</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NBD7024H-P分区名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>romfs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x002F0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>0x000A0000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0x000AFFFF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x003BFFFF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rd.gz</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x003C0000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x007EFFFF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x007F0000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x007FFFFF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0X00800000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0X0080FFFF</t>
+    <t>0x000B0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0039FFFF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rootfs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x003A0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x004EFFFF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x00150000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x004F0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x002E0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>app</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mac</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mtd</t>
+  </si>
+  <si>
+    <t>web</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>custom</t>
+  </si>
+  <si>
+    <t>logo</t>
+  </si>
+  <si>
+    <t>0x00010000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x00ABFFFF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x002B0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x00AC0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x00C3FFFF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x00180000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x00C40000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x00300000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x00F3FFFF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x00F40000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x00F6FFFF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x000C0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x00F70000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0102FFFF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x00010000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x00040000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x007CFFFF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x007D0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x007DFFFF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0X007E0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0X007EFFFF</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>0x00810000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x000B0000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x002f0000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x00430000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x00010000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DSM分区名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>存储内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rootfs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>env</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大小(KB)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>起始</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>结束</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大小</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x00020000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x00080000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -188,7 +325,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -211,13 +348,67 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -522,10 +713,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -535,173 +726,401 @@
     <col min="4" max="4" width="9.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18" customWidth="1"/>
+    <col min="9" max="9" width="17.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+        <v>14</v>
+      </c>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="2">
+        <v>512</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="1">
+        <v>256</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="1">
+        <v>64</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="1">
+        <v>192</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="1">
+        <v>128</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="1">
+        <v>128</v>
+      </c>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="1">
+        <v>64</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="1">
+        <v>64</v>
+      </c>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="1">
-        <v>512</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" s="1">
+      <c r="C7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="1">
+        <v>3008</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="1">
+        <v>3008</v>
+      </c>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="2">
+        <v>4288</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1344</v>
+      </c>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="1">
+        <v>2944</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="1">
+        <v>64</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="1">
+        <v>64</v>
+      </c>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A11" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="1">
+        <v>64</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" s="1">
+        <v>64</v>
+      </c>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A12" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" s="2">
+        <v>8256</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12" s="1">
+        <v>2752</v>
+      </c>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="6">
+        <v>1536</v>
+      </c>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A14" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="6">
+        <v>3072</v>
+      </c>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A15" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="6">
         <v>128</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="1">
-        <v>64</v>
-      </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="1">
-        <v>3008</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="1">
-        <v>4288</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="1">
-        <v>64</v>
-      </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="1">
-        <v>64</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1" t="s">
-        <v>8</v>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A16" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="6">
+        <v>768</v>
+      </c>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="H9:H12"/>
+    <mergeCell ref="I9:I12"/>
+    <mergeCell ref="D12:D16"/>
+    <mergeCell ref="F12:F16"/>
+    <mergeCell ref="E12:E16"/>
+    <mergeCell ref="F2:F6"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="H4:H8"/>
+    <mergeCell ref="I4:I8"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="E8:E9"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
